--- a/01-01-2023.xlsx
+++ b/01-01-2023.xlsx
@@ -504,11 +504,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[{'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và  ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách đều, mỏng\nRuột: Các quai ruột nhiều hơi\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'CÁC QUAI RUỘT NHIỀU HƠI', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'J02 - Viêm họng cấp', 'NoiChiDinh': 'Khoa Khám Bệnh - 104ND', 'BacSiChiDinh': 'BS Nguyễn Hữu Trí', 'MauKetQua': 'RUỘT NHIỀU HƠI', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010398', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010387'}]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>79408210099283</t>
@@ -572,11 +568,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[{'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và  ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách đều, mỏng\nRuột: Các quai ruột nhiều hơi\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy\nDÀY MẠC NỐI VÙNG HỐ CHẬU PHẢI ', 'ketluan': 'CÁC QUAI RUỘT NHIỀU HƠI\nDÀY MẠC NỐI VÙNG HỐ CHẬU PHẢI', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'TD viêm ruột thừa', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Trần Thị Thanh', 'MauKetQua': 'RUỘT NHIỀU HƠI', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301020081', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301020145'}, {'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách mỏng\nRuột: Các quai ruột nhiều dịch\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy\nDÀY MẠC NỐI VÙNG HỐ CHẬU PHẢI ', 'ketluan': 'CÁC QUAI RUỘT NHIỀU DỊCH\nDÀY MẠC NỐI VÙNG HỐ CHẬU PHẢI. CHƯA LOẠI TRỪ VIÊM RUỘT THỪA', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'K35 - Viêm ruột thừa cấp', 'NoiChiDinh': 'Khoa Khám Bệnh - 111ND', 'BacSiChiDinh': 'BS Đồng Sơn Trà', 'MauKetQua': 'RUỘT NHIỀU DỊCH', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010394', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010386'}, {'description': 'Gan: Bờ đều đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': ' HIỆN CHƯA GHI NHẬN BẤT THƯỜNG/ SIÊU ÂM BỤNG', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'dị ứng', 'NoiChiDinh': 'PK TYC Chất Lượng Cao - 5CLC', 'BacSiChiDinh': 'BS.Bùi văn Đỡ', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'XARIO 200', 'MaAnhDICOM': 'US2207240251', 'NoiThucHien': 'PK TYC Chất Lượng Cao', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2207240243'}]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>121819090</t>
@@ -640,11 +632,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[{'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách mỏng\nRuột: Các quai ruột nhiều dịch\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'CÁC QUAI RUỘT NHIỀU DỊCH', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'J03 - Viêm amyđan cấp', 'NoiChiDinh': 'Khoa Khám Bệnh - 104ND', 'BacSiChiDinh': 'BS Nguyễn Hữu Trí', 'MauKetQua': 'RUỘT NHIỀU DỊCH', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010395', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010385'}]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>79408230000335</t>
@@ -708,11 +696,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[{'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách mỏng\nRuột: Các quai ruột nhiều dịch\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'CÁC QUAI RUỘT NHIỀU DỊCH', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'ói', 'NoiChiDinh': 'PK TYC Chất Lượng Cao - 16CLC', 'BacSiChiDinh': 'BS. Trần thị Như Mỹ', 'MauKetQua': 'RUỘT NHIỀU DỊCH', 'ThietBi': 'XARIO 200', 'MaAnhDICOM': 'US2305260594', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Huỳnh Ngọc Phương Thảo', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2305260566'}, {'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách mỏng\nRuột: Các quai ruột nhiều dịch\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'CÁC QUAI RUỘT NHIỀU DỊCH', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'K30 - Khó tiêu chức năng', 'NoiChiDinh': 'Khoa Khám Bệnh - 104ND', 'BacSiChiDinh': 'BS Nguyễn Hữu Trí', 'MauKetQua': 'RUỘT NHIỀU DỊCH', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010393', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010383'}, {'description': 'Gan: Bờ đều, cấu trúc đồng nhất, kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Không thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách đều, mỏng\nRuột: Không thấy bất thường\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy.\nKhảo sát động ghi nhận hình ảnh trào ngược dạ dày =&gt; thực quản.', 'ketluan': 'GHI NHẬN HÌNH ẢNH TRÀO NGƯỢC DẠ DÀY =&gt;THỰC QUẢN/ SIÊU ÂM', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'K21 - Bệnh trào ngược dạ dày - thực quản', 'NoiChiDinh': 'PK TYC Chất Lượng Cao - 12CLC', 'BacSiChiDinh': 'BS CKI Võ Thị Vân', 'MauKetQua': 'RGO(+)', 'ThietBi': 'XARIO 200', 'MaAnhDICOM': 'US2211020490', 'NoiThucHien': 'PK TYC Chất Lượng Cao', 'BSDocKetQua': 'BS CKI Nguyễn Quốc Khánh', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2211020371'}]</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>79408220066502</t>
@@ -776,11 +760,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[{'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim:  Chưa thấy bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi: Chưa thấy bất thường', 'ketluan': 'HIỆN CHƯA GHI NHẬN HÌNH ẢNH BẤT THƯỜNG/ XQ', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'dập phổi/đa chấn thương', 'NoiChiDinh': 'Gan mật tụy', 'BacSiChiDinh': 'BS. Trịnh Nguyễn Hạ Vi', 'MauKetQua': 'PHỔI BÌNH THƯỜNG', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301130049', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': 'CN Võ Văn Tuấn', 'MaPhieuChiDinh': 'CR2301150013'}, {'description': '', 'ketluan': 'gãylồi cầu trong tay trái', 'KyThuat': 'Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch', 'DeNghi': '', 'ChuanDoan': 'gãy tat T', 'NoiChiDinh': 'Gan mật tụy', 'BacSiChiDinh': 'BS Trương Thị Yến Nhi', 'MauKetQua': '', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301130004', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Nguyễn Thị Uyên Sa', 'KTVThucHien': 'CN Phạm Linh Giang', 'MaPhieuChiDinh': 'CR2301130016'}, {'description': '', 'ketluan': 'PHIM CHỤP KIỂM TRA SAU ĐIỀU TRỊ GÃY MỎM  KHUỶU TAY TRÁI, KÍNH CHUYỂN LÂM SÀNG.', 'KyThuat': 'Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch', 'DeNghi': '', 'ChuanDoan': 'gãy mỏm khuỷu tay trái', 'NoiChiDinh': 'Gan mật tụy', 'BacSiChiDinh': 'BS. LƯU NGUYỄN AN THUẬN', 'MauKetQua': 'XQ XƯƠNG', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301120077', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': 'CN Trần Xuân Thành', 'MaPhieuChiDinh': 'CR2301120226'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   TRÀN DỊCH MÀNG PHỔI PHẢI \nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI.\nTRÀN DỊCH MÀNG PHỔI PHẢI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'viêm phổi/ chấn thương gan', 'NoiChiDinh': 'Gan mật tụy', 'BacSiChiDinh': 'BS. LƯU NGUYỄN AN THUẬN', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301080075', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Nguyễn Quốc Khánh', 'KTVThucHien': 'CN Võ Văn Tuấn', 'MaPhieuChiDinh': 'CR2301080105'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Theo dõi tràn dịch màng phổi  phải\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường phổi phải', 'ketluan': '-Mờ phế trường phổi phải\n-Theo dõi tràn dịch màng phổi  phải', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'ĐA CHẤN THƯƠNG- DẬP PHỔI', 'NoiChiDinh': 'Gan mật tụy', 'BacSiChiDinh': 'BS. TRỊNH NGUYỄN HẠ VI', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301050294', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'KTV Huỳnh Nhật Minh', 'MaPhieuChiDinh': 'CR2301050371'}, {'description': 'Ống tiêu hoá: \n  * Nhiều hơi, phân bố đều\n  * Không mức khí dịch\nKhông hơi tự do ổ bụng\nKhông bóng cản quang bất thường\nKhông bất thường hệ xương vùng bụng chậu', 'ketluan': 'HIỆN CHƯA GHI NHẬN BẤT THƯỜNG/ X QUANG BỤNG', 'KyThuat': 'Chụp Xquang bụng không chuẩn bị thẳng hoặc nghiêng', 'DeNghi': '', 'ChuanDoan': 'chân thương gan', 'NoiChiDinh': 'Gan mật tụy', 'BacSiChiDinh': 'BS Nguyễn Huỳnh Trân', 'MauKetQua': 'BỤNG KHÔNG CHUẨN BỊ', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301050294', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'KTV Huỳnh Nhật Minh', 'MaPhieuChiDinh': 'CR2301050373'}, {'description': '', 'ketluan': 'GHI NHẬN ĐƯỜNG THẤU QUANG KÈM MẤT LIÊN TỤC  VỎ XƯƠNG VÙNG MỎM KHUỶU XƯƠNG TRỤ  / X QUANG.', 'KyThuat': 'Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương - tngt', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Trần Huy Hoàng', 'MauKetQua': 'XQ XƯƠNG', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301030074', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': 'CN Lê Kiến Quốc', 'MaPhieuChiDinh': 'CR2301030101'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   tràn dịch màng phổi hai bên \nTrung thất :  Chưa thấy bất thường\nTim:  Chưa thấy bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi: Chưa thấy bất thường', 'ketluan': 'Màng phổi :   tràn dịch màng phổi hai bên', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'Chấn thương gan thận/Đa chấn thương sau tai nạn giao thông ngày 2', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Trần Thị Thanh', 'MauKetQua': 'PHỔI BÌNH THƯỜNG', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301020275', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': 'CN Lê Kiến Quốc', 'MaPhieuChiDinh': 'CR2301020299'}, {'description': '', 'ketluan': 'Không bất thường hệ xương vùng bụng chậu', 'KyThuat': 'Chụp Xquang khung chậu thẳng', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BS Trần Anh Thư', 'MauKetQua': '', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301010250', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'CN Phan Văn Trường', 'MaPhieuChiDinh': 'CR2301010255'}, {'description': 'Ống tiêu hoá: \n  * Nhiều hơi, phân bố đều\n  * Không mức khí dịch\nKhông hơi tự do ổ bụng\nKhông bóng cản quang bất thường\nKhông bất thường hệ xương vùng bụng chậu', 'ketluan': '', 'KyThuat': 'Chụp Xquang bụng không chuẩn bị thẳng hoặc nghiêng [thẳng và nghiêng]', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BS Trần Anh Thư', 'MauKetQua': 'BỤNG KHÔNG CHUẨN BỊ', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301010250', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'CN Phan Văn Trường', 'MaPhieuChiDinh': 'CR2301010254'}]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>79408230000328</t>
@@ -845,11 +825,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[{'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'ARDS - Viêm phổi nặng', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'ThS.BS CKI Tăng Thể Hồng', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2307270128', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': 'CN Phạm Tuấn Anh (B)', 'MaPhieuChiDinh': 'CR2307270251'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'viem phoi', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BS.Lê Hồ Minh Thức', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2307250018', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': 'CN Phạm Tuấn Anh (B)', 'MaPhieuChiDinh': 'CR2307250011'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ thùy trên phổi phải', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'Viêm phổi - Suy tủy', 'NoiChiDinh': 'Ung bướu huyết học', 'BacSiChiDinh': 'BS Nguyễn Thị Mai Lan', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2307130118', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS Võ Minh Tuấn', 'KTVThucHien': 'KTV Nhiêu Minh Khang', 'MaPhieuChiDinh': 'CR2307130226'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường  thùy trên phổi phải ', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'suy tủy', 'NoiChiDinh': 'Ung bướu huyết học', 'BacSiChiDinh': 'BS Nguyễn Thị Quỳnh Như', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2307080172', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Quốc Đạt', 'KTVThucHien': 'KTV Nguyễn Văn Hiếu', 'MaPhieuChiDinh': 'CR2307080170'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'Suy tủy -Viêm phổi', 'NoiChiDinh': 'Ung bướu huyết học', 'BacSiChiDinh': 'BS Nguyễn Thị Mai Lan', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2307030187', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': 'CN Trần Xuân Thành', 'MaPhieuChiDinh': 'CR2307030283'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ thùy trên phổi phải và rốn phổi hai bên.', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'viêm phổi nặng', 'NoiChiDinh': 'Hô hấp 1', 'BacSiChiDinh': 'BS. LÊ THANH TUYỀN', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2302060196', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS Võ Minh Tuấn', 'KTVThucHien': 'KTV Phan Thanh Chí Dũng', 'MaPhieuChiDinh': 'CR2302060184'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ thùy trên phổi phải và rốn phổi hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'viêm phổi - Nhiễm trùng huyết', 'NoiChiDinh': 'Hô hấp 1', 'BacSiChiDinh': 'BS. NGUYỄN MINH TUẤN', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301310032', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': 'CN Phan Văn Trường', 'MaPhieuChiDinh': 'CR2301310159'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường thùy trên phổi phải', 'ketluan': 'THEO DÕI VIÊM THÙY TRÊN PHỔI PHẢI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'viêm phổi', 'NoiChiDinh': 'Hô hấp 1', 'BacSiChiDinh': 'BS NGUYỄN TẤN THIỆN', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301260034', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'CN Phan Văn Trường', 'MaPhieuChiDinh': 'CR2301260043'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'viêm phổi', 'NoiChiDinh': 'Hô hấp 1', 'BacSiChiDinh': 'BS Nguyễn Quỳnh Anh', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301210023', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Huỳnh Ngọc Phương Thảo', 'KTVThucHien': 'CN Lê Kiến Quốc', 'MaPhieuChiDinh': 'CR2301210041'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'viêm phổi', 'NoiChiDinh': 'Hồi sức TC &amp; CĐ', 'BacSiChiDinh': 'BS Hoàng Sỹ Quang', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301090264', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Quốc Đạt', 'KTVThucHien': 'CN Lê Kiến Quốc', 'MaPhieuChiDinh': 'CR2301090381'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'viêm phổi', 'NoiChiDinh': 'Hồi sức TC &amp; CĐ', 'BacSiChiDinh': 'BS Lưu Hoàng Ái Phương', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301070099', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Nguyễn Quốc Khánh', 'KTVThucHien': 'CN Phan Văn Trường', 'MaPhieuChiDinh': 'CR2301080013'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'vp', 'NoiChiDinh': 'Hồi sức TC &amp; CĐ', 'BacSiChiDinh': 'THS.BS Nguyễn Duy Tân', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301020321', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': 'CN Võ Văn Tuấn', 'MaPhieuChiDinh': 'CR2301030004'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'Viêm phổi nặng', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BSCK1.Lê Hải Lợi', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301020129', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': 'KTV Tô Hoàng Ân', 'MaPhieuChiDinh': 'CR2301020141'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': ' Mờ phế trường hai bên', 'KyThuat': 'Chụp Xquang ngực thẳng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'viêm phổi', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BS Trần Anh Thư', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301010251', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'CN Phan Văn Trường', 'MaPhieuChiDinh': 'CR2301010253'}]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>79408230000332</t>
@@ -913,11 +889,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[{'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách mỏng\nRuột: Các quai ruột nhiều dịch\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'CÁC QUAI RUỘT NHIỀU DỊCH', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'ói, tiêu lỏng, đau bụng', 'NoiChiDinh': 'Khoa Khám Bệnh - 104ND', 'BacSiChiDinh': 'BS Nguyễn Hữu Trí', 'MauKetQua': 'RUỘT NHIỀU DỊCH', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010389', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010382'}]</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>062074436</t>
@@ -981,11 +953,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[{'description': 'Thành ngực: bóng chỉ cản quang thành ngực\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'J18 - Viêm phổi, tác nhân không xác định', 'NoiChiDinh': 'Khoa Khám Bệnh - 411ND', 'BacSiChiDinh': 'BS Nguyễn Huỳnh Khánh Vi', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2310310022', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': 'CN Nguyễn Thị Mai Thơ', 'MaPhieuChiDinh': 'CR2310310014'}, {'description': 'Màng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'hp vsd', 'NoiChiDinh': 'Tim mạch', 'BacSiChiDinh': 'BS Trần Thị Hoàng Minh', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301060113', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'CN Trần Xuân Thành', 'MaPhieuChiDinh': 'CR2301060177'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'hp vsd', 'NoiChiDinh': 'Hồi Sức Tim Mạch', 'BacSiChiDinh': 'BS Trần Thị Hoàng Minh', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301010019', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'KTV Tô Hoàng Ân', 'MaPhieuChiDinh': 'CR2301010250'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'Thông liên thất', 'NoiChiDinh': 'Hồi Sức Tim Mạch', 'BacSiChiDinh': 'BS Vũ Quốc Anh Thy', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2212300228', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS Võ Minh Tuấn', 'KTVThucHien': 'CN Lê Kiến Quốc', 'MaPhieuChiDinh': 'CR2212300408'}, {'description': 'Thành ngực:  Thay đổi sau phẫu thuật\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: bệnh tim đã can thiệp.\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'tbs', 'NoiChiDinh': 'Hồi sức tim', 'BacSiChiDinh': 'BS Trần Duy Ngọc', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2212270003', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Nguyễn Thị Uyên Sa', 'KTVThucHien': 'CN Phan Văn Trường', 'MaPhieuChiDinh': 'CR2212270034'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'tbs', 'NoiChiDinh': 'Hồi sức tim', 'BacSiChiDinh': 'BS Đặng Thị Ngọc Diễm', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2212260337', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': 'CN Nguyễn Chánh Thi', 'MaPhieuChiDinh': 'CR2212260308'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim:  bóng tim to \nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Đậm rốn phổi hai bên &amp; tổn thương nhu mô rải rác', 'ketluan': 'VIÊM PHẾ QUẢN PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'VSD', 'NoiChiDinh': 'Tim mạch', 'BacSiChiDinh': 'BS Lê Vũ Kim Tụ', 'MauKetQua': 'XQ PHỔI (VFQP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2212230263', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Quốc Đạt', 'KTVThucHien': 'CN Lê Kiến Quốc', 'MaPhieuChiDinh': 'CR2212230325'}]</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>79408220056655</t>
@@ -1049,11 +1017,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[{'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'viêm phổi - TBS', 'NoiChiDinh': 'Tim mạch', 'BacSiChiDinh': 'BS Trương Nhật Vi', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2312140234', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': 'CN Trần Xuân Thành', 'MaPhieuChiDinh': 'CR2312140247'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'VTPQBN - viem loét họng', 'NoiChiDinh': 'Tim mạch', 'BacSiChiDinh': 'BS Trương Nhật Vi', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2312060457', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Nguyễn Quang Huy', 'KTVThucHien': 'KTV Trần Tấn Phú', 'MaPhieuChiDinh': 'CR2312060474'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'J18.9 - Viêm phổi, không đặc hiệu', 'NoiChiDinh': 'Khoa Khám Bệnh - 437ND', 'BacSiChiDinh': 'BS Lê Vũ Kim Tụ', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2311210286', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Nguyễn Quốc Khánh', 'KTVThucHien': 'KTV Thái Nguyễn Thanh Thắng', 'MaPhieuChiDinh': 'CR2311210272'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'J18.9 - Viêm phổi, không đặc hiệu', 'NoiChiDinh': 'Khoa Khám Bệnh - 104ND', 'BacSiChiDinh': 'BS. Bùi Trung Hiếu', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2311180008', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS Võ Minh Tuấn', 'KTVThucHien': 'CN Lê Kiến Quốc', 'MaPhieuChiDinh': 'CR2311180006'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'giảm tiểu cầu', 'NoiChiDinh': 'Tim mạch', 'BacSiChiDinh': 'BS .CKI. Nguyễn Thị Bích Huyền', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2311090290', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'CN Trần Xuân Thành', 'MaPhieuChiDinh': 'CR2311090408'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'viêm phổi/tbs', 'NoiChiDinh': 'Tim mạch', 'BacSiChiDinh': 'BS Trần Thị Hoàng Minh', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2311030232', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': 'KTV Huỳnh Nhật Minh', 'MaPhieuChiDinh': 'CR2311030367'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'vtpq', 'NoiChiDinh': 'Tim mạch', 'BacSiChiDinh': 'BS Lê Vũ Kim Tụ', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2310290012', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Huỳnh Ngọc Phương Thảo', 'KTVThucHien': 'KTV Nguyễn Văn Hiếu', 'MaPhieuChiDinh': 'CR2310290079'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim: Bóng tim bất thường\nPhế quản:  Chưa thấy bất thường\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rải rác hai bên', 'ketluan': 'Viêm phổi /tbs', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'Q21.0 - Thông liên thất', 'NoiChiDinh': 'Khoa Khám Bệnh - 437ND', 'BacSiChiDinh': 'BS Lê Vũ Kim Tụ', 'MauKetQua': 'XQ PHỔI (TBS)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2309200218', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS Võ Minh Tuấn', 'KTVThucHien': 'KTV Nguyễn Văn Hiếu', 'MaPhieuChiDinh': 'CR2309200227'}]</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>79408220063480</t>
@@ -1117,11 +1081,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[{'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất: tràn khí trung thất\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI\nTrung thất: tràn khí trung thất', 'KyThuat': 'Chụp Xquang ngực thẳng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'cao áp phổi', 'NoiChiDinh': 'Hồi sức sơ sinh', 'BacSiChiDinh': 'BS. NGUYỄN TỐ NA', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301020249', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': 'CN Võ Văn Tuấn', 'MaPhieuChiDinh': 'CR2301020259'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  tràn khí trung thất\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI\nTràn khí trung thất', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'viem phoi', 'NoiChiDinh': 'Hồi sức sơ sinh', 'BacSiChiDinh': 'BS. NGUYỄN TỐ NA', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301020203', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': 'CN Võ Văn Tuấn', 'MaPhieuChiDinh': 'CR2301020235'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi :   Chưa thấy bất thường\nTrung thất :  Chưa thấy bất thường\nTim:  Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ rốn phổi hai bên', 'ketluan': 'Mờ rốn phổi hai bên', 'KyThuat': 'Chụp Xquang ngực thẳng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'cao áp phổi nặng', 'NoiChiDinh': 'Hồi sức sơ sinh', 'BacSiChiDinh': 'BS. NGUYỄN CHÍNH HIẾU', 'MauKetQua': 'XQ PHỔI (VPQ)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301010245', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'KTV Tô Hoàng Ân', 'MaPhieuChiDinh': 'CR2301010252'}, {'description': 'Ống tiêu hoá: \n  * Hơi phân bố đều\n  * Không mức khí dịch\nKhông hơi tự do ổ bụng\nKhông bóng cản quang bất thường\nKhông bất thường hệ xương vùng bụng chậu', 'ketluan': '', 'KyThuat': 'Chụp Xquang bụng không chuẩn bị thẳng hoặc nghiêng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'Cao áp phổi', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BS.Trần Nguyễn Uyên Phương', 'MauKetQua': 'BỤNG KHÔNG CHUẨN BỊ', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301010167', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'KTV Tô Hoàng Ân', 'MaPhieuChiDinh': 'CR2301010141'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'Bệnh màng trong', 'NoiChiDinh': 'Hồi sức sơ sinh', 'BacSiChiDinh': 'BS. NGUYỄN THỊ DUNG', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301010200', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'CN Phan Văn Trường', 'MaPhieuChiDinh': 'CR2301010195'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'Mờ phế trường hai bên', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'VP', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'TH.BS Nguyễn Thuỵ Ý Nhi', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301010107', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': 'KTV Tô Hoàng Ân', 'MaPhieuChiDinh': 'CR2301010093'}, {'description': 'Thành ngực:  Chưa thấy bất thường\nMàng phổi:   Chưa thấy bất thường\nTrung thất:  Chưa thấy bất thường\nTim: Chưa thấy bất thường\nPhế quản:  Dày thành phế quản\nCơ hoành:  Chưa thấy bất thường\nPhổi:  Mờ phế trường hai bên', 'ketluan': 'VIÊM PHỔI', 'KyThuat': 'Chụp Xquang ngực thẳng', 'DeNghi': '', 'ChuanDoan': 'viem phoi', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BS.Nguyễn Thị Mai Khanh', 'MauKetQua': 'XQ PHỔI (VP)', 'ThietBi': 'X-Quang', 'MaAnhDICOM': 'CR2301010005', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Quốc Đạt', 'KTVThucHien': 'CN Nguyễn Chánh Thi', 'MaPhieuChiDinh': 'CR2301010004'}]</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>79408220116880</t>
@@ -1185,11 +1145,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[{'description': 'Gan:  VÙNG GAN PHẢI CÒN KHỐI ECHO KÉM D#73X76MM, ĐƯỜNG NỨT TRÊN GAN PHẢI D#3.7MM , DO CHẤN THƯƠNG GAN CŨ , CHIỀU CAO GAN #130MM, \nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn.\nLách: Đồng nhất kích thước không to.\nTụy: Chưa thấy bất thường.\nThận: Thận phải: kích thước #91X35MM,  chủ mô bình thường, không ứ nước.CỰC DƯỚI CÓ KHỐI ECHO KÉM D#28X31MM\n           Thận trái: kích thước chủ mô bình thường, không ứ nước.\nNiệu quản: Không giãn.\nBàng quang: Thành không dày, niêm mạc đều.\nRuột: Chưa thấy bất thường.\nDịch ổ bụng: Không thấy.\nDịch màng phổi: Không thấy.', 'ketluan': '-VÙNG GAN PHẢI CÒN KHỐI ECHO KÉM D#73X76MM, ĐƯỜNG NỨT TRÊN GAN PHẢI D#3.7MM , DO CHẤN THƯƠNG GAN CŨ , CHIỀU CAO GAN #130MM\n- THẬN TRÁI CỰC DƯỚI CÓ KHỐI ECHO KÉM', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'chấn thương gan, thận phải 2 tháng tái khám', 'NoiChiDinh': 'Khoa Khám Bệnh - 403ND', 'BacSiChiDinh': 'Phan Tuấn Kiệt', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2303300255', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Nguyễn Quốc Khánh', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2303300216'}, {'description': 'Gan: GAN PHẢI CÓ Ổ TỤ DỊCH , DỊCH ĐỒNG NHẤT KÍCH THƯỚC #110x74mm\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'KHỐI TỤ DỊCH GAN PHẢI DỊCH ĐỒNG NHẤT', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'tái khám chấn thương gan + chấn thương thận phải', 'NoiChiDinh': 'Khoa Khám Bệnh - 111ND', 'BacSiChiDinh': 'ThS.BS Nguyễn Bình An', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2302020362', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2302020333'}, {'description': 'Gan: Tổn thương gan phải vùng hạ phân thùy VII- VIII hỗn hợp đã hóa dịch, kt# 74x93x94mm, có tụ ít dịch dưới bao gan d# 10mm.\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: Cực trên thận phải kém đồng nhất, dịch trong bao thận lớp mỏng.\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng:Lượng ít, dịch hồi âm mịn\nDịch màng phổi: Không thấy', 'ketluan': 'CHẤN THƯƠNG GAN - THẬN PHẢI ĐANG ĐIỀU TRỊ\nDỊCH Ổ BỤNG LƯỢNG ÍT, HỒI ÂM MỊN', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'Chấn thương gan thận phải/ TNGT', 'NoiChiDinh': 'Gan mật tụy', 'BacSiChiDinh': 'Phan Tuấn Kiệt', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301100187', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trương Văn Đức', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301100342'}, {'description': 'Gan: hạ phân thùy VI - VII có vùng nhu mô echo dày không đồng nhất d# 125x80mm, ít dịch bao gan và rãnh gan - thận. \nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: lượng vừa, có hồi âm, ít vách. \nDịch màng phổi: bên phải  lượng vừa d# 14MM, ít hồi âm, không vách', 'ketluan': 'Dập gan hạ phân thùy VI-VII. ít dịch bao gan\nDịch ổ bụng: lượng vừa, có hồi âm, ít vách. \nDịch màng phổi: bên phải  lượng vừa d# 14MM, ít hồi âm, không vách', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'chấn thương gan- chấn thương thận', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Lê Văn Giàu', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301040146', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Nguyễn Quang Huy', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301040269'}, {'description': 'Cấu trúc nhu mô phổi: ĐÔNG ĐẶC ĐÁY PHỔI PHẢI \nDịch màng phổi, màng tim: RẤT ÍT DỊCH MÀNG PHỔI PHẢI \n ', 'ketluan': 'ĐÔNG ĐẶC ĐÁY PHỔI PHẢI \nRẤT ÍT DỊCH MÀNG PHỔI PHẢI', 'KyThuat': 'Siêu âm thành ngực (cơ, phần mềm thành ngực)', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương - tngt', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Trần Huy Hoàng', 'MauKetQua': 'NGỰC', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301030125', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301030139'}, {'description': 'Gan:  PHÂN THÙY VII-VIII ECHO DÀY, GIỚI HẠN KHÔNG RÕ\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: LƯỢNG VỪA-NHIỀU, HỒI ÂM MỊN\nDịch màng phổi: Không thấy', 'ketluan': ' DẬP GAN PHÂN THÙY VII-VIII\nXUẤT HUYẾT Ổ BỤNG LƯỢNG VỪA-NHIỀU', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương - tngt', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Trần Huy Hoàng', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301030124', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301030136'}, {'description': 'Gan: Bờ đều gan phải đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: lượng trung bình, có hồi âm mịn\nDịch màng phổi: bên phải lượng ít, có hồi âm mịn', 'ketluan': 'Dập vỡ gan phải\nDịch ổ bụng: lượng trung bình, có hồi âm mịn\nDịch màng phổi: bên phải lượng ít, có hồi âm mịn', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'chấn thương gan-thận/ TNGT', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. LÊ THỊ DUYÊN NGỌC', 'MauKetQua': '', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301020502', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301020501'}, {'description': '', 'ketluan': 'Xẹp thụ động thùy dưới phổi phải\nDịch màng phổi: bên phải lượng ít, có hồi âm mịn\nKhông tràn dịch màng phổi trái', 'KyThuat': 'Siêu âm thành ngực (cơ, phần mềm thành ngực)', 'DeNghi': '', 'ChuanDoan': 'Chấn thương gan thận/Đa chấn thương sau tai nạn giao thông ngày 2', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Trần Thị Thanh', 'MauKetQua': '', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301020413', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301020459'}, {'description': 'Gan: Bờ đều gan phải đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: lượng trung bình, có hồi âm mịn\nDịch màng phổi: bên phải lượng ít, có hồi âm mịn', 'ketluan': 'Dập vỡ gan phải\nDịch ổ bụng: lượng trung bình, có hồi âm mịn\nDịch màng phổi: bên phải lượng ít, có hồi âm mịn', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'chấn thương gan/ TNGT', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. LÊ THỊ DUYÊN NGỌC', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301020432', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301020457'}, {'description': 'ÍT DỊCH MÀNG PHỔI PHẢI \nHIỆN KHÔNG THẤY TRÀN DỊCH MÀNG PHỔI TRÁI ', 'ketluan': '', 'KyThuat': 'Siêu âm màng phổi', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BS Trần Anh Thư', 'MauKetQua': '', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010386', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010381'}, {'description': 'Gan: gan phải có cấu trúc echo dày kèm không đồng nhất, giới hạn không rõ, hạ phân thùy VII - VIII\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước, tụ dịch lợn cợn dưới bao thận bề dày # 9mm\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: dịch khoang gan - thận, túi cùng lượng vừa, dịch có hồi âm lợn cợn ', 'ketluan': 'THEO DÕI DẬP VỠ GAN PHẢI \nTHEO DÕI CHẤN THƯƠNG THẬN, TỤ MÁU DƯỚI BAO THẬN PHẢI \nTỤ MÁU KHOANG GAN - THẬN, TÚI CÙNG LƯỢNG VỪA', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng) [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BS Trần Anh Thư', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010385', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010380'}]</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>79408230000328</t>
@@ -1253,11 +1209,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[{'description': 'Gan:  VÙNG GAN PHẢI CÒN KHỐI ECHO KÉM D#73X76MM, ĐƯỜNG NỨT TRÊN GAN PHẢI D#3.7MM , DO CHẤN THƯƠNG GAN CŨ , CHIỀU CAO GAN #130MM, \nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn.\nLách: Đồng nhất kích thước không to.\nTụy: Chưa thấy bất thường.\nThận: Thận phải: kích thước #91X35MM,  chủ mô bình thường, không ứ nước.CỰC DƯỚI CÓ KHỐI ECHO KÉM D#28X31MM\n           Thận trái: kích thước chủ mô bình thường, không ứ nước.\nNiệu quản: Không giãn.\nBàng quang: Thành không dày, niêm mạc đều.\nRuột: Chưa thấy bất thường.\nDịch ổ bụng: Không thấy.\nDịch màng phổi: Không thấy.', 'ketluan': '-VÙNG GAN PHẢI CÒN KHỐI ECHO KÉM D#73X76MM, ĐƯỜNG NỨT TRÊN GAN PHẢI D#3.7MM , DO CHẤN THƯƠNG GAN CŨ , CHIỀU CAO GAN #130MM\n- THẬN TRÁI CỰC DƯỚI CÓ KHỐI ECHO KÉM', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'chấn thương gan, thận phải 2 tháng tái khám', 'NoiChiDinh': 'Khoa Khám Bệnh - 403ND', 'BacSiChiDinh': 'Phan Tuấn Kiệt', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2303300255', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Nguyễn Quốc Khánh', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2303300216'}, {'description': 'Gan: GAN PHẢI CÓ Ổ TỤ DỊCH , DỊCH ĐỒNG NHẤT KÍCH THƯỚC #110x74mm\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'KHỐI TỤ DỊCH GAN PHẢI DỊCH ĐỒNG NHẤT', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'tái khám chấn thương gan + chấn thương thận phải', 'NoiChiDinh': 'Khoa Khám Bệnh - 111ND', 'BacSiChiDinh': 'ThS.BS Nguyễn Bình An', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2302020362', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2302020333'}, {'description': 'Gan: Tổn thương gan phải vùng hạ phân thùy VII- VIII hỗn hợp đã hóa dịch, kt# 74x93x94mm, có tụ ít dịch dưới bao gan d# 10mm.\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: Cực trên thận phải kém đồng nhất, dịch trong bao thận lớp mỏng.\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng:Lượng ít, dịch hồi âm mịn\nDịch màng phổi: Không thấy', 'ketluan': 'CHẤN THƯƠNG GAN - THẬN PHẢI ĐANG ĐIỀU TRỊ\nDỊCH Ổ BỤNG LƯỢNG ÍT, HỒI ÂM MỊN', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'Chấn thương gan thận phải/ TNGT', 'NoiChiDinh': 'Gan mật tụy', 'BacSiChiDinh': 'Phan Tuấn Kiệt', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301100187', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trương Văn Đức', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301100342'}, {'description': 'Gan: hạ phân thùy VI - VII có vùng nhu mô echo dày không đồng nhất d# 125x80mm, ít dịch bao gan và rãnh gan - thận. \nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: lượng vừa, có hồi âm, ít vách. \nDịch màng phổi: bên phải  lượng vừa d# 14MM, ít hồi âm, không vách', 'ketluan': 'Dập gan hạ phân thùy VI-VII. ít dịch bao gan\nDịch ổ bụng: lượng vừa, có hồi âm, ít vách. \nDịch màng phổi: bên phải  lượng vừa d# 14MM, ít hồi âm, không vách', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'chấn thương gan- chấn thương thận', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Lê Văn Giàu', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301040146', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Nguyễn Quang Huy', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301040269'}, {'description': 'Cấu trúc nhu mô phổi: ĐÔNG ĐẶC ĐÁY PHỔI PHẢI \nDịch màng phổi, màng tim: RẤT ÍT DỊCH MÀNG PHỔI PHẢI \n ', 'ketluan': 'ĐÔNG ĐẶC ĐÁY PHỔI PHẢI \nRẤT ÍT DỊCH MÀNG PHỔI PHẢI', 'KyThuat': 'Siêu âm thành ngực (cơ, phần mềm thành ngực)', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương - tngt', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Trần Huy Hoàng', 'MauKetQua': 'NGỰC', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301030125', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301030139'}, {'description': 'Gan:  PHÂN THÙY VII-VIII ECHO DÀY, GIỚI HẠN KHÔNG RÕ\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: LƯỢNG VỪA-NHIỀU, HỒI ÂM MỊN\nDịch màng phổi: Không thấy', 'ketluan': ' DẬP GAN PHÂN THÙY VII-VIII\nXUẤT HUYẾT Ổ BỤNG LƯỢNG VỪA-NHIỀU', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương - tngt', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Trần Huy Hoàng', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301030124', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKII Huỳnh Văn Tho', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301030136'}, {'description': 'Gan: Bờ đều gan phải đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: lượng trung bình, có hồi âm mịn\nDịch màng phổi: bên phải lượng ít, có hồi âm mịn', 'ketluan': 'Dập vỡ gan phải\nDịch ổ bụng: lượng trung bình, có hồi âm mịn\nDịch màng phổi: bên phải lượng ít, có hồi âm mịn', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'chấn thương gan-thận/ TNGT', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. LÊ THỊ DUYÊN NGỌC', 'MauKetQua': '', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301020502', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301020501'}, {'description': '', 'ketluan': 'Xẹp thụ động thùy dưới phổi phải\nDịch màng phổi: bên phải lượng ít, có hồi âm mịn\nKhông tràn dịch màng phổi trái', 'KyThuat': 'Siêu âm thành ngực (cơ, phần mềm thành ngực)', 'DeNghi': '', 'ChuanDoan': 'Chấn thương gan thận/Đa chấn thương sau tai nạn giao thông ngày 2', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. Trần Thị Thanh', 'MauKetQua': '', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301020413', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301020459'}, {'description': 'Gan: Bờ đều gan phải đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: lượng trung bình, có hồi âm mịn\nDịch màng phổi: bên phải lượng ít, có hồi âm mịn', 'ketluan': 'Dập vỡ gan phải\nDịch ổ bụng: lượng trung bình, có hồi âm mịn\nDịch màng phổi: bên phải lượng ít, có hồi âm mịn', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'chấn thương gan/ TNGT', 'NoiChiDinh': 'Ngoại tổng hợp', 'BacSiChiDinh': 'BS. LÊ THỊ DUYÊN NGỌC', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 223', 'MaAnhDICOM': 'US2301020432', 'NoiThucHien': 'Khoa Chẩn Đoán Hình Ảnh', 'BSDocKetQua': 'BS CKI Trần Nam Hưng', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301020457'}, {'description': 'ÍT DỊCH MÀNG PHỔI PHẢI \nHIỆN KHÔNG THẤY TRÀN DỊCH MÀNG PHỔI TRÁI ', 'ketluan': '', 'KyThuat': 'Siêu âm màng phổi', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BS Trần Anh Thư', 'MauKetQua': '', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010386', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010381'}, {'description': 'Gan: gan phải có cấu trúc echo dày kèm không đồng nhất, giới hạn không rõ, hạ phân thùy VII - VIII\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước, tụ dịch lợn cợn dưới bao thận bề dày # 9mm\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: dịch khoang gan - thận, túi cùng lượng vừa, dịch có hồi âm lợn cợn ', 'ketluan': 'THEO DÕI DẬP VỠ GAN PHẢI \nTHEO DÕI CHẤN THƯƠNG THẬN, TỤ MÁU DƯỚI BAO THẬN PHẢI \nTỤ MÁU KHOANG GAN - THẬN, TÚI CÙNG LƯỢNG VỪA', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng) [Tại giường]', 'DeNghi': '', 'ChuanDoan': 'đa chấn thương', 'NoiChiDinh': 'Cấp cứu', 'BacSiChiDinh': 'BS Trần Anh Thư', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010385', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010380'}]</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>79408230000328</t>
@@ -1321,11 +1273,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[{'description': 'Gan: Bờ đều đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản:  không giãn\nBàng quang: Thành không dày, niêm mạc đều\nRuột: Chưa thấy bất thường\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': ' HIỆN CHƯA GHI NHẬN BẤT THƯỜNG/ SIÊU ÂM BỤNG', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'SỐT CUỐI N1,ÓI,a ĐỎ', 'NoiChiDinh': 'PK TYC Chất Lượng Cao - 15CLC', 'BacSiChiDinh': 'BS.CK1 Lê Nguyễn Như Ngọc', 'MauKetQua': 'BỤNG BÌNH THƯỜNG', 'ThietBi': 'XARIO 200', 'MaAnhDICOM': 'US2301190103', 'NoiThucHien': 'PK TYC Chất Lượng Cao', 'BSDocKetQua': 'BS CKI Nguyễn Thị Uyên Sa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301190084'}, {'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách mỏng\nRuột: Các quai ruột nhiều dịch\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'CÁC QUAI RUỘT NHIỀU DỊCH', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'R10 - Đau bụng và vùng chậu', 'NoiChiDinh': 'Khoa Khám Bệnh - 104ND', 'BacSiChiDinh': 'BS Nguyễn Hữu Trí', 'MauKetQua': 'RUỘT NHIỀU DỊCH', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010388', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010379'}, {'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách mỏng\nRuột: Các quai ruột nhiều dịch\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'CÁC QUAI RUỘT NHIỀU DỊCH', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'J00 - Viêm Mũi Họng Cấp [cảm Thường]', 'NoiChiDinh': 'PK TYC Chất Lượng Cao - 5CLC', 'BacSiChiDinh': 'BS CKII Nguyễn Thị Thanh Thùy', 'MauKetQua': 'RUỘT NHIỀU DỊCH', 'ThietBi': 'XARIO 200', 'MaAnhDICOM': 'US2210290382', 'NoiThucHien': 'PK TYC Chất Lượng Cao', 'BSDocKetQua': 'BS CKI Trần Quốc Đạt', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2210290351'}]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>111890192</t>
@@ -1389,11 +1337,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[{'description': 'Các rãnh não, khe não: Chưa thấy bất thường\nKhoang dưới nhện: Chưa thấy bất thường\nNhu mô não: Chưa thấy bất thường\nCác não thất: Không giãn \nĐường giữa: Không lệch \nHố sau: Chưa thấy bất thường', 'ketluan': 'HIỆN CHƯA GHI NHẬN BẤT THƯỜNG/ SIÊU ÂM NÃO XUYÊN THÓP\n\n(Lưu ý: siêu âm xuyên thóp khó phát hiện được những tổn thương xuất huyết nhỏ, đề nghị theo dõi thêm lâm sàng)', 'KyThuat': 'Siêu âm qua thóp', 'DeNghi': '', 'ChuanDoan': 'CHẤN THƯƠNG ĐẦU/ TÉ', 'NoiChiDinh': 'Khoa Khám Bệnh - 111ND', 'BacSiChiDinh': 'BS Lê Hoàng Hùng', 'MauKetQua': 'THÓP CHẤN THƯƠNG', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010387', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010378'}]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>79408230000330</t>
@@ -1457,11 +1401,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[{'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và  ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n           Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách đều, mỏng\nRuột: Các quai ruột nhiều hơi\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'CÁC QUAI RUỘT NHIỀU HƠI', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'dị vật đường tiêu hóa', 'NoiChiDinh': 'Tiêu Hoá', 'BacSiChiDinh': 'BS Nguyễn Vũ Quế Chi', 'MauKetQua': 'RUỘT NHIỀU HƠI', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010383', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010377'}]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>79408230000314</t>
@@ -1525,11 +1465,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[{'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách mỏng\nRuột: Các quai ruột nhiều dịch\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'CÁC QUAI RUỘT NHIỀU DỊCH', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'tk không sốt 2n, ói tiêu lỏng, đau bụng, ho', 'NoiChiDinh': 'Khoa Khám Bệnh - 312ND', 'BacSiChiDinh': 'BS.Hoàng Gia Lộc', 'MauKetQua': 'RUỘT NHIỀU DỊCH', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301040695', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Nguyễn Thị Hồng Ngọc', 'KTVThucHien': 'KTV Trần Công Bình', 'MaPhieuChiDinh': 'US2301040673'}, {'description': 'Gan: Bờ đều, đồng nhất kích thước không to\nMật: Túi mật vách mỏng, đường mật trong và ngoài gan không giãn\nLách: Đồng nhất, kích thước không to\nTụy: Chưa thấy bất thường\nThận: Thận phải: kích thước chủ mô bình thường, không ứ nước\n          Thận trái: kích thước chủ mô bình thường, không ứ nước\nNiệu quản: Hai bên không giãn\nBàng quang: Vách mỏng\nRuột: Các quai ruột nhiều dịch\nDịch ổ bụng: Không thấy\nDịch màng phổi: Không thấy', 'ketluan': 'CÁC QUAI RUỘT NHIỀU DỊCH', 'KyThuat': 'Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)', 'DeNghi': '', 'ChuanDoan': 'A04.9 - Nhiễm trùng đường ruột do vi khuẩn, không xác định', 'NoiChiDinh': 'Khoa Khám Bệnh - 104ND', 'BacSiChiDinh': 'BS Nguyễn Hữu Trí', 'MauKetQua': 'RUỘT NHIỀU DỊCH', 'ThietBi': 'LOGIQS7 224', 'MaAnhDICOM': 'US2301010384', 'NoiThucHien': 'Phòng khám ND', 'BSDocKetQua': 'BS CKI Trần Văn Hòa', 'KTVThucHien': '', 'MaPhieuChiDinh': 'US2301010376'}]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>79408230000325</t>
